--- a/medicine/Enfance/Patrick_Ness/Patrick_Ness.xlsx
+++ b/medicine/Enfance/Patrick_Ness/Patrick_Ness.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Patrick Ness, né le 17 octobre 1971 à Fort Belvoir en Virginie, est un romancier anglo-américain, spécialisé en science-fiction et littérature d'enfance et de jeunesse.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Patrick Ness fait des études de littérature anglaise aux États-Unis. Il part pour l'Angleterre et s'établit à Londres en 1999.
-Il écrit des textes pour la radio[1], et des critiques littéraires pour The Guardian[2]. Il a enseigné l'écriture créative à l'Université Oxford[3].
-Il a pris la nationalité anglaise. Il a contracté une union civile avec son compagnon en 2004[4].
-En 2022, il est sélectionné pour la quatrième année d'affilée (depuis 2019) pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[5].
+Il écrit des textes pour la radio, et des critiques littéraires pour The Guardian. Il a enseigné l'écriture créative à l'Université Oxford.
+Il a pris la nationalité anglaise. Il a contracté une union civile avec son compagnon en 2004.
+En 2022, il est sélectionné pour la quatrième année d'affilée (depuis 2019) pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -547,62 +561,171 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série : Le Chaos en marche
-La Voix du couteau, Gallimard Jeunesse, 2009 ((en) The Knife of Never Letting Go, 2008), trad. Bruno Krebs  (ISBN 978-2-07-061828-6)Réédition Gallimard, coll. « Folio SF » no 492, 2014  (ISBN 978-2-07-045941-4)
+          <t>Série : Le Chaos en marche</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Voix du couteau, Gallimard Jeunesse, 2009 ((en) The Knife of Never Letting Go, 2008), trad. Bruno Krebs  (ISBN 978-2-07-061828-6)Réédition Gallimard, coll. « Folio SF » no 492, 2014  (ISBN 978-2-07-045941-4)
 Le Cercle et la Flèche, Gallimard Jeunesse, 2010 ((en) The Ask and the Answer, 2009), trad. Bruno Krebs  (ISBN 978-2-07-061829-3)Réédition Gallimard, coll. « Folio SF » no 493, 2014  (ISBN 978-2-07-045942-1)
-La Guerre du bruit, Gallimard Jeunesse, 2011 ((en) Monsters of Men, 2010), trad. Bruno Krebs  (ISBN 978-2-07-061830-9)Réédition Gallimard, coll. « Folio SF » no 494, 2014  (ISBN 978-2-07-045943-8)
-Romans indépendants
-(en) The Crash of Hennington, 2003
+La Guerre du bruit, Gallimard Jeunesse, 2011 ((en) Monsters of Men, 2010), trad. Bruno Krebs  (ISBN 978-2-07-061830-9)Réédition Gallimard, coll. « Folio SF » no 494, 2014  (ISBN 978-2-07-045943-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Patrick_Ness</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Ness</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) The Crash of Hennington, 2003
 Quelques minutes après minuit, Gallimard Jeunesse, 2012 ((en) A Monster Calls, 2011), trad. Bruno Krebs  (ISBN 978-2-07-064290-8)D'après une idée originale de Siobhan Dowd ; illustrations de Jim Kay
 Et plus encore, Gallimard Jeunesse, 2014 ((en) More Than This, 2013), trad. Bruno Krebs  (ISBN 978-2-07-066170-1)
 (en) The Crane Wife, 2013
 Nous autres simples mortels, Gallimard Jeunesse, 2016 ((en) The Rest of Us Just Live Here, 2015), trad. Bruno Krebs  (ISBN 978-2-07-507458-2)
 Libération, Gallimard Jeunesse, 2018 ((en) Release, 2017), trad. Bruno Krebs  (ISBN 978-2-07-508789-6)
 (en) And the Ocean Was Our Sky, 2018
-Burn, Pocket Jeunesse, 2020 ((en) Burn, 2020), trad. Eva Grynszpan  (ISBN 978-2-266-30576-1)
-Recueils de nouvelles
-(en) Topics About Which I Know Nothing, 2005
-Scénarios
-Quelques minutes après minuit (2016), écriture de l'adaptation cinématographique du roman
+Burn, Pocket Jeunesse, 2020 ((en) Burn, 2020), trad. Eva Grynszpan  (ISBN 978-2-266-30576-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Patrick_Ness</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Ness</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Topics About Which I Know Nothing, 2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Patrick_Ness</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Ness</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Scénarios</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Quelques minutes après minuit (2016), écriture de l'adaptation cinématographique du roman
 Class (2016), création de la série et écriture des huit épisodes</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Patrick_Ness</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Patrick_Ness</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Prix James Tiptree, Jr. 2008 pour La Voix du couteau (The Knife of Never Letting Go)
-Finaliste Médaille Carnegie 2010[6] pour Le Cercle et la Flèche (The Ask and The Answer)
+Finaliste Médaille Carnegie 2010 pour Le Cercle et la Flèche (The Ask and The Answer)
 Médaille Carnegie 2011 pour La Guerre du bruit (Monster of Men)
 Médaille Carnegie 2012 pour Quelques minutes après minuit (A Monster Calls)
  Prix Imaginales 2013 pour Quelques minutes après minuit
-Finaliste Médaille Carnegie 2015[6] pour Et plus encore (More Than This)
-Finaliste Médaille Carnegie 2016[7] pour Nous autres simples mortels (The Rest of Us Just Live Here)
-Finaliste Médaille Carnegie 2018[8] pour Libération (Release)
- Sélection pour le Prix commémoratif Astrid-Lindgren 2019-2022, durant quatre années d'affilée[5]</t>
+Finaliste Médaille Carnegie 2015 pour Et plus encore (More Than This)
+Finaliste Médaille Carnegie 2016 pour Nous autres simples mortels (The Rest of Us Just Live Here)
+Finaliste Médaille Carnegie 2018 pour Libération (Release)
+ Sélection pour le Prix commémoratif Astrid-Lindgren 2019-2022, durant quatre années d'affilée</t>
         </is>
       </c>
     </row>
